--- a/experiment result/64_0.3_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.3_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04338809453350706</v>
+        <v>0.01153596418639468</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06161626491813131</v>
+        <v>0.002619332767204993</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06411025117387646</v>
+        <v>0.01033244933332201</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05555673325551451</v>
+        <v>0.009720569429317734</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05085610821424965</v>
+        <v>0.007883447838431003</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06388954049994214</v>
+        <v>0.01138900538998778</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06361195876766808</v>
+        <v>0.002084052932717681</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04913491939390264</v>
+        <v>0.01113712951807016</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06433539214719761</v>
+        <v>0.01114024318905847</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06672798691484952</v>
+        <v>0.01636523377331352</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06562461481580659</v>
+        <v>0.01672426525027557</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07938466702165757</v>
+        <v>0.01573685139255705</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08055802273134431</v>
+        <v>0.004249415464930282</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1086315737946967</v>
+        <v>0.01335194021765425</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06948825855757183</v>
+        <v>0.006864824952754298</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05705634168705988</v>
+        <v>0.006095096238462818</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06855407349236506</v>
+        <v>0.02142749566393237</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06145807086838431</v>
+        <v>0.001189057842177624</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06255280639546709</v>
+        <v>0.01915059445898564</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08124459369928538</v>
+        <v>0.01223428290223632</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0483394330859259</v>
+        <v>0.006101436117806542</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04193755130812291</v>
+        <v>0.002855767969217084</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0761592311301261</v>
+        <v>0.011607217799477</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04130130101331776</v>
+        <v>0.007886946844632346</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03710268721124058</v>
+        <v>0.00293337309256225</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07132972442763927</v>
+        <v>0.02088838441043375</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05145672187043049</v>
+        <v>0.007633999071242711</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05320140862069259</v>
+        <v>0.01901232074243266</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05499297738745361</v>
+        <v>0.01093796942139823</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06218926700903792</v>
+        <v>0.00892644291993259</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03432075617146241</v>
+        <v>0.0007117221211933248</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0411359274068221</v>
+        <v>0.001413809228739817</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0822036841058708</v>
+        <v>0.01373679959270999</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04132354756111041</v>
+        <v>0.002634542794727883</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03819898934240965</v>
+        <v>0.006694752644222651</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06867593439143935</v>
+        <v>0.006880328636812094</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04766897632596025</v>
+        <v>0.003919080302577109</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06329109467687286</v>
+        <v>0.003701883122408981</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.034359742488304</v>
+        <v>0.00656463173060097</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07084823715637259</v>
+        <v>0.02382833449553919</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06773117897642424</v>
+        <v>0.01925519496612731</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05841430771558889</v>
+        <v>0.01034123448322579</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04357141054175005</v>
+        <v>0.009177125161843493</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02907904940024074</v>
+        <v>0.004047317870324372</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04536366309777052</v>
+        <v>0.006339700698155868</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05678948217941049</v>
+        <v>0.007347619566204865</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07613462292818038</v>
+        <v>0.01893285378426469</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0421474049157894</v>
+        <v>0.002360091095409213</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0867513985465517</v>
+        <v>0.01051085688966882</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06519999340072197</v>
+        <v>0.0005789453234339838</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04925043225768354</v>
+        <v>0.01041896738102023</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06305090934017576</v>
+        <v>0.0104046352517721</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03222675666223938</v>
+        <v>3.35489391259623e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03517724702556353</v>
+        <v>0.0007743181795400711</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06272520813988916</v>
+        <v>0.007137574697575066</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05086752866544546</v>
+        <v>0.01535689844477253</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05309580287126291</v>
+        <v>0.004300775557799615</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06674399181440407</v>
+        <v>0.008425560138635175</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08083719814426156</v>
+        <v>0.01219594838619415</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06946684108289278</v>
+        <v>0.001530501417251807</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02371715916827796</v>
+        <v>0.000418082017172361</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04167651967181678</v>
+        <v>0.009731822151675545</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05690424626493375</v>
+        <v>0.0088018606154944</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.04286253297172075</v>
+        <v>0.00252898231492435</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06981453959856566</v>
+        <v>0.02107590342557976</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05111373654902053</v>
+        <v>0.01214491346517447</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05117375510268165</v>
+        <v>0.004701100663903971</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04867512495346896</v>
+        <v>0.003722846443119284</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04153211047511105</v>
+        <v>0.00106686675163111</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04732380071599412</v>
+        <v>0.00418880734478097</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.05961722880181373</v>
+        <v>0.004812986523898378</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04937532303506814</v>
+        <v>0.002443914034713239</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08788937971564714</v>
+        <v>0.0150815442809431</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06376954533621099</v>
+        <v>0.01051346145262771</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04605785541196268</v>
+        <v>0.02285111240897182</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.05976119689547341</v>
+        <v>0.02758073486890469</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06118801885075786</v>
+        <v>0.0007540076750875693</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0351579103218568</v>
+        <v>0.01211763512650478</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04388889730663346</v>
+        <v>0.01100664697047371</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04025688927427957</v>
+        <v>0.003566538423141323</v>
       </c>
     </row>
   </sheetData>
